--- a/wwwroot/Uploads/Professor.xlsx
+++ b/wwwroot/Uploads/Professor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB05C5CE-2388-4414-B01C-C067792D7ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F51D4-6A31-42AB-A17A-75276CDE15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{B35B1A48-58E7-4F30-AEFA-1C3C8539223E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="150">
   <si>
     <t>Arely Moss</t>
   </si>
@@ -424,6 +424,57 @@
   </si>
   <si>
     <t>10311112501199</t>
+  </si>
+  <si>
+    <t>Ahmed Hosny</t>
+  </si>
+  <si>
+    <t>10000000000001</t>
+  </si>
+  <si>
+    <t>10000000000002</t>
+  </si>
+  <si>
+    <t>10000000000003</t>
+  </si>
+  <si>
+    <t>10000000000004</t>
+  </si>
+  <si>
+    <t>10000000000005</t>
+  </si>
+  <si>
+    <t>Mostafa kamel</t>
+  </si>
+  <si>
+    <t>Asaad mohamed</t>
+  </si>
+  <si>
+    <t>Abdo Hany</t>
+  </si>
+  <si>
+    <t>Abdo Saad</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>10000000000006</t>
+  </si>
+  <si>
+    <t>10000000000007</t>
+  </si>
+  <si>
+    <t>10000000000008</t>
   </si>
 </sst>
 </file>
@@ -792,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0728CE-02A3-4EC3-A227-3BEABC7B64F9}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -824,11 +875,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -836,135 +887,135 @@
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -973,15 +1024,15 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -990,15 +1041,15 @@
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -1007,15 +1058,15 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1024,15 +1075,15 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -1041,15 +1092,15 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -1058,15 +1109,15 @@
         <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -1075,15 +1126,15 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1092,15 +1143,15 @@
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1109,15 +1160,15 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -1126,15 +1177,15 @@
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -1143,15 +1194,15 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1160,15 +1211,15 @@
         <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1177,15 +1228,15 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1194,15 +1245,15 @@
         <v>29</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1211,15 +1262,15 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1233,10 +1284,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -1245,15 +1296,15 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -1262,15 +1313,15 @@
         <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1279,15 +1330,15 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1296,15 +1347,15 @@
         <v>29</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -1313,15 +1364,15 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1330,15 +1381,15 @@
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -1347,15 +1398,15 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
@@ -1364,15 +1415,15 @@
         <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -1381,15 +1432,15 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -1398,15 +1449,15 @@
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
@@ -1415,15 +1466,15 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
@@ -1432,15 +1483,15 @@
         <v>29</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
@@ -1449,15 +1500,15 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -1466,15 +1517,15 @@
         <v>29</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
@@ -1483,15 +1534,15 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>27</v>
@@ -1500,15 +1551,15 @@
         <v>29</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -1517,15 +1568,15 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
@@ -1534,15 +1585,15 @@
         <v>29</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
@@ -1551,15 +1602,15 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
@@ -1568,15 +1619,15 @@
         <v>29</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
@@ -1585,15 +1636,15 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>27</v>
@@ -1602,15 +1653,15 @@
         <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
@@ -1619,15 +1670,15 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
@@ -1641,10 +1692,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>27</v>
@@ -1653,15 +1704,15 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>27</v>
@@ -1670,15 +1721,15 @@
         <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>27</v>
@@ -1687,15 +1738,15 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>27</v>
@@ -1704,15 +1755,15 @@
         <v>29</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>27</v>
@@ -1721,15 +1772,15 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>27</v>
@@ -1738,15 +1789,15 @@
         <v>29</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>27</v>
@@ -1755,15 +1806,15 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>27</v>
@@ -1772,15 +1823,15 @@
         <v>29</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>27</v>
@@ -1789,15 +1840,15 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>27</v>
@@ -1806,15 +1857,15 @@
         <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -1823,15 +1874,15 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>27</v>
@@ -1840,15 +1891,15 @@
         <v>29</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>27</v>
@@ -1857,15 +1908,15 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>27</v>
@@ -1874,15 +1925,15 @@
         <v>29</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>27</v>
@@ -1891,15 +1942,15 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>27</v>
@@ -1908,15 +1959,15 @@
         <v>29</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>27</v>
@@ -1925,15 +1976,15 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>27</v>
@@ -1942,15 +1993,15 @@
         <v>29</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>27</v>
@@ -1959,15 +2010,15 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>27</v>
@@ -1976,15 +2027,15 @@
         <v>29</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>27</v>
@@ -1993,15 +2044,15 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>27</v>
@@ -2010,15 +2061,15 @@
         <v>29</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>27</v>
@@ -2027,15 +2078,15 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>27</v>
@@ -2049,10 +2100,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>27</v>
@@ -2061,15 +2112,15 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>27</v>
@@ -2078,15 +2129,15 @@
         <v>29</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>27</v>
@@ -2095,15 +2146,15 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>27</v>
@@ -2112,15 +2163,15 @@
         <v>29</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>27</v>
@@ -2129,15 +2180,15 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>27</v>
@@ -2146,15 +2197,15 @@
         <v>29</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>27</v>
@@ -2163,15 +2214,15 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>27</v>
@@ -2180,15 +2231,15 @@
         <v>29</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>27</v>
@@ -2197,15 +2248,15 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>27</v>
@@ -2214,15 +2265,15 @@
         <v>29</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>27</v>
@@ -2231,15 +2282,15 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>27</v>
@@ -2248,15 +2299,15 @@
         <v>29</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>27</v>
@@ -2265,15 +2316,15 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>27</v>
@@ -2282,15 +2333,15 @@
         <v>29</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>27</v>
@@ -2299,15 +2350,15 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>27</v>
@@ -2316,15 +2367,15 @@
         <v>29</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>27</v>
@@ -2333,15 +2384,15 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>27</v>
@@ -2350,15 +2401,15 @@
         <v>29</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>27</v>
@@ -2367,15 +2418,15 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>27</v>
@@ -2384,15 +2435,15 @@
         <v>29</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>27</v>
@@ -2401,15 +2452,15 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>27</v>
@@ -2418,15 +2469,15 @@
         <v>29</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>27</v>
@@ -2435,15 +2486,15 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>27</v>
@@ -2457,10 +2508,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>27</v>
@@ -2469,15 +2520,15 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>27</v>
@@ -2486,29 +2537,165 @@
         <v>29</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="C108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:A33">
+    <sortCondition ref="A10:A33"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wwwroot/Uploads/Professor.xlsx
+++ b/wwwroot/Uploads/Professor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F51D4-6A31-42AB-A17A-75276CDE15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73443652-5752-42EE-87E7-314E809A5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{B35B1A48-58E7-4F30-AEFA-1C3C8539223E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="153">
   <si>
     <t>Arely Moss</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>10000000000008</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -970,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>31</v>
@@ -987,7 +996,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -1004,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
